--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t xml:space="preserve">Asset Register Report</t>
   </si>
@@ -40,40 +40,40 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Asset Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
   </si>
   <si>
     <t xml:space="preserve">Account Name</t>
@@ -373,8 +373,8 @@
   </sheetPr>
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -429,28 +429,23 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -461,7 +456,7 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
@@ -472,16 +467,18 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
@@ -489,7 +486,7 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="1"/>
@@ -497,7 +494,7 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
@@ -505,7 +502,7 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
@@ -513,7 +510,7 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
@@ -521,7 +518,7 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
@@ -529,7 +526,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="1"/>
@@ -537,7 +534,7 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="1"/>
@@ -545,7 +542,7 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="1"/>
@@ -553,7 +550,7 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
@@ -568,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>18</v>
@@ -583,7 +580,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>21</v>
@@ -637,13 +634,13 @@
         <v>37</v>
       </c>
       <c r="Y19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Z19" s="10" t="s">
+      <c r="AA19" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="AA19" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="AB19" s="10" t="s">
         <v>38</v>
@@ -721,7 +718,7 @@
         <v>61</v>
       </c>
       <c r="BA19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB19" s="10" t="s">
         <v>62</v>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -118,10 +118,10 @@
     <t xml:space="preserve">Owner Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost Cetner Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Cetner Name</t>
+    <t xml:space="preserve">Cost Center Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Center Name</t>
   </si>
   <si>
     <t xml:space="preserve">Source of Fund</t>
@@ -373,8 +373,8 @@
   </sheetPr>
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t xml:space="preserve">Asset Register Report</t>
   </si>
@@ -112,6 +112,12 @@
     <t xml:space="preserve">Budget Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Source of Budget Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of Budget Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner Code</t>
   </si>
   <si>
@@ -124,7 +130,7 @@
     <t xml:space="preserve">Cost Center Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Source of Fund</t>
+    <t xml:space="preserve">Fund of Owner</t>
   </si>
   <si>
     <t xml:space="preserve">Division</t>
@@ -371,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB19"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y19" activeCellId="0" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,25 +399,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="21" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="3" width="9.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="3" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="3" width="12.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="34" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="3" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="19.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="23" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="3" width="9.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="3" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="3" width="12.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="36" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="3" width="15.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="41" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,19 +640,19 @@
         <v>37</v>
       </c>
       <c r="Y19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="10" t="s">
+      <c r="AB19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AC19" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="AB19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="AD19" s="10" t="s">
         <v>40</v>
@@ -688,13 +694,13 @@
         <v>52</v>
       </c>
       <c r="AQ19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS19" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="AR19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS19" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="AT19" s="10" t="s">
         <v>55</v>
@@ -718,10 +724,16 @@
         <v>61</v>
       </c>
       <c r="BA19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BB19" s="10" t="s">
-        <v>62</v>
+      <c r="BD19" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t xml:space="preserve">Asset Register Report</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">To</t>
   </si>
   <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t xml:space="preserve">Asset Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Account Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Responsible Person</t>
   </si>
   <si>
@@ -58,9 +58,30 @@
     <t xml:space="preserve">Room</t>
   </si>
   <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset Status</t>
   </si>
   <si>
+    <t xml:space="preserve">Source of Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsector</t>
+  </si>
+  <si>
     <t xml:space="preserve">Current Year</t>
   </si>
   <si>
@@ -73,9 +94,6 @@
     <t xml:space="preserve">Product Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">Account Name</t>
   </si>
   <si>
@@ -131,15 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fund of Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector</t>
   </si>
   <si>
     <t xml:space="preserve">Responsible Person ID</t>
@@ -377,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y19" activeCellId="0" sqref="Y19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -475,12 +484,9 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -558,182 +564,238 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" s="11" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+    <row r="19" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" s="11" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="Y26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="W19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AA26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AB19" s="10" t="s">
+      <c r="AB26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AC26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AD19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG19" s="10" t="s">
+      <c r="AD26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AH19" s="10" t="s">
+      <c r="AE26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AI19" s="10" t="s">
+      <c r="AF26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AJ19" s="10" t="s">
+      <c r="AG26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AK19" s="10" t="s">
+      <c r="AH26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AL19" s="10" t="s">
+      <c r="AI26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AM19" s="10" t="s">
+      <c r="AJ26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AN19" s="10" t="s">
+      <c r="AK26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AO19" s="10" t="s">
+      <c r="AL26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AP19" s="10" t="s">
+      <c r="AM26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AQ19" s="10" t="s">
+      <c r="AN26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AR19" s="10" t="s">
+      <c r="AO26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AS19" s="10" t="s">
+      <c r="AP26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AT19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW19" s="10" t="s">
+      <c r="AT26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AX19" s="10" t="s">
+      <c r="AU26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AY19" s="10" t="s">
+      <c r="AV26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AZ19" s="10" t="s">
+      <c r="AW26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BA19" s="10" t="s">
+      <c r="AX26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BB19" s="10" t="s">
+      <c r="AY26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BC19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD19" s="10" t="s">
+      <c r="AZ26" s="10" t="s">
         <v>64</v>
+      </c>
+      <c r="BA26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD26" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Asset Register Report" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Accum. Depre. Group By GL" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t xml:space="preserve">Asset Register Report</t>
   </si>
@@ -232,9 +233,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -320,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +370,18 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -389,7 +404,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,4 +822,59 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="12" width="16.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -393,6 +393,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -869,6 +881,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:H1048576">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A1="Total"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -453,7 +453,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="15.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="43" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="61" min="60" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset Register Report" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Accum. Depre. Group By GL" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Asset Register Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Accum. Depre. Group By GL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,225 +28,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">Asset Register Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Profile Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Profile Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code (legacy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund of Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible Person ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible Person Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+  <si>
+    <t>Asset Register Report</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Asset Profile</t>
+  </si>
+  <si>
+    <t>Asset Code</t>
+  </si>
+  <si>
+    <t>Account Code</t>
+  </si>
+  <si>
+    <t>Responsible Person</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Asset Status</t>
+  </si>
+  <si>
+    <t>Source of Budget</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Subsector</t>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>Run By</t>
+  </si>
+  <si>
+    <t>Run Date</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Asset Profile Code</t>
+  </si>
+  <si>
+    <t>Asset Profile Name</t>
+  </si>
+  <si>
+    <t>Asset Name</t>
+  </si>
+  <si>
+    <t>Asset Parent</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>Code (legacy)</t>
+  </si>
+  <si>
+    <t>Acceptance Date</t>
+  </si>
+  <si>
+    <t>Asset Start Date</t>
+  </si>
+  <si>
+    <t>Picking Date</t>
+  </si>
+  <si>
+    <t>Picking Number</t>
+  </si>
+  <si>
+    <t>Budget Type</t>
+  </si>
+  <si>
+    <t>Source of Budget Code</t>
+  </si>
+  <si>
+    <t>Source of Budget Name</t>
+  </si>
+  <si>
+    <t>Owner Code</t>
+  </si>
+  <si>
+    <t>Owner Name</t>
+  </si>
+  <si>
+    <t>Cost Center Code</t>
+  </si>
+  <si>
+    <t>Cost Center Name</t>
+  </si>
+  <si>
+    <t>Fund of Owner</t>
+  </si>
+  <si>
+    <t>Responsible Person ID</t>
+  </si>
+  <si>
+    <t>Responsible Person Name</t>
+  </si>
+  <si>
+    <t>Partner Code</t>
+  </si>
+  <si>
+    <t>Partner Name</t>
   </si>
   <si>
     <t xml:space="preserve">PO Number </t>
   </si>
   <si>
-    <t xml:space="preserve">PR Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Request Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Request Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Requester Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Requester Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR Approved Date</t>
+    <t>PR Number</t>
+  </si>
+  <si>
+    <t>Purchase Method</t>
+  </si>
+  <si>
+    <t>Asset Request Code</t>
+  </si>
+  <si>
+    <t>Asset Request Name</t>
+  </si>
+  <si>
+    <t>PR Requester Code</t>
+  </si>
+  <si>
+    <t>PR Requester Name</t>
+  </si>
+  <si>
+    <t>PR Approved Date</t>
   </si>
   <si>
     <t xml:space="preserve">Serial Number </t>
   </si>
   <si>
-    <t xml:space="preserve">Warranty Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warranty Expire Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase Value
+    <t>Warranty Start Date</t>
+  </si>
+  <si>
+    <t>Warranty Expire Date</t>
+  </si>
+  <si>
+    <t>Purchase Value
 Before Current FY</t>
   </si>
   <si>
-    <t xml:space="preserve">Purchase Value
+    <t>Purchase Value
 Current FY</t>
   </si>
   <si>
-    <t xml:space="preserve">Purchase Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accum. Depre B/F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accum. Depre C/F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Book Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Removal Date</t>
+    <t>Purchase Value</t>
+  </si>
+  <si>
+    <t>Accum. Depre B/F</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Accum. Depre C/F</t>
+  </si>
+  <si>
+    <t>Net Book Value</t>
+  </si>
+  <si>
+    <t>Number of Years</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Asset Removal Date</t>
+  </si>
+  <si>
+    <t>Asset State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -247,22 +254,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -290,7 +282,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -298,173 +290,413 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color rgb="FF000000"/>
+        <name val="Arial"/>
       </font>
     </dxf>
   </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BD26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="BD10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ21" sqref="BJ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="23" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="3" width="9.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="3" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="3" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="3" width="12.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="36" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="3" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="43" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="61" min="60" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="3" width="11.52"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="2" customWidth="1"/>
+    <col min="16" max="18" width="16.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19" style="3" customWidth="1"/>
+    <col min="23" max="27" width="11.5703125" style="3"/>
+    <col min="28" max="29" width="9.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="3"/>
+    <col min="31" max="31" width="16.85546875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="3" customWidth="1"/>
+    <col min="34" max="35" width="12.7109375" style="3" customWidth="1"/>
+    <col min="36" max="37" width="11.5703125" style="3"/>
+    <col min="38" max="38" width="15.7109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="3"/>
+    <col min="40" max="40" width="15.7109375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" style="3"/>
+    <col min="42" max="42" width="15.7109375" style="3" customWidth="1"/>
+    <col min="43" max="59" width="11.5703125" style="3"/>
+    <col min="60" max="61" width="11.5703125" style="3" hidden="1"/>
+    <col min="62" max="1025" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -472,13 +704,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -487,7 +719,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -498,7 +730,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -509,7 +741,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -517,7 +749,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -525,7 +757,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -533,7 +765,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -541,7 +773,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -549,7 +781,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -557,7 +789,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -565,7 +797,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -573,7 +805,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -581,7 +813,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -589,7 +821,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -597,7 +829,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -605,7 +837,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -613,7 +845,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -621,7 +853,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -629,7 +861,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -637,7 +869,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -645,7 +877,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -653,11 +885,11 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" s="11" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:57" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
@@ -826,12 +1058,14 @@
       <c r="BD26" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="BE26" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -839,24 +1073,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="12" width="16.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="8" width="16.5703125" style="12" customWidth="1"/>
+    <col min="9" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -884,14 +1113,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A1="Total"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Asset Register Report</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Asset State</t>
+  </si>
+  <si>
+    <t>Org Owner</t>
   </si>
 </sst>
 </file>
@@ -338,6 +341,14 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -356,19 +367,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ21" sqref="BJ21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +894,7 @@
     </row>
     <row r="26" spans="1:57" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>23</v>
@@ -1113,7 +1116,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1="Total"</formula>
     </cfRule>
   </conditionalFormatting>
